--- a/biology/Botanique/Itea_(genre)/Itea_(genre).xlsx
+++ b/biology/Botanique/Itea_(genre)/Itea_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Itea est un genre d'arbustes ou de petits arbres de la famille des Grossulariaceae selon la classification classique, ou de celle des Iteaceae selon la classification phylogénétique (APGIII). Elle est originaire de l'Asie du sud-est et pour une de l'est de l'Amérique du nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Itea amoena Chun
 Itea chinensis Hook. &amp; Arn.
